--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D19E862-26B4-4D4C-AFB2-9A85297C8228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CDBC2474-EFD4-684C-AF69-A93B3D516F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Version</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>0.1.2</t>
-  </si>
-  <si>
-    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist</t>
   </si>
   <si>
     <t>https://1024terabox.com/s/1H0j6ZcIszFVzd4882qy-4A</t>
@@ -464,12 +461,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="131.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.24609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="96.453125" bestFit="1" customWidth="1"/>
@@ -490,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -506,20 +503,20 @@
       <c r="B2">
         <v>4862800</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -527,6 +524,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1652DBC4-B956-E74F-A89C-8F8EBA71F5B1}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{B54AEC42-FD55-2D49-ABE0-A6177DA7B1B0}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{01DDBE85-A07E-1546-8E1E-C86E4EDC6A72}"/>
+    <hyperlink ref="C2" location="itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist" display="Install" xr:uid="{7F96383B-09D4-1949-A621-887FE7AAD804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CDBC2474-EFD4-684C-AF69-A93B3D516F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D6D6BD0C-20F2-E949-AC72-5294571FE126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="15">
   <si>
     <t>Version</t>
   </si>
@@ -51,9 +51,6 @@
     <t>0.1.2</t>
   </si>
   <si>
-    <t>https://1024terabox.com/s/1H0j6ZcIszFVzd4882qy-4A</t>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1Q7fPma_LW6wTk0OvJRhynQ?pwd=1234</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>iOS 4.3 or above, iOS 10.3.4 or below, *Do not support iOS 11 and above!</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Terabox</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -504,27 +507,27 @@
         <v>4862800</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1652DBC4-B956-E74F-A89C-8F8EBA71F5B1}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{B54AEC42-FD55-2D49-ABE0-A6177DA7B1B0}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{01DDBE85-A07E-1546-8E1E-C86E4EDC6A72}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B54AEC42-FD55-2D49-ABE0-A6177DA7B1B0}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{01DDBE85-A07E-1546-8E1E-C86E4EDC6A72}"/>
     <hyperlink ref="C2" location="itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist" display="Install" xr:uid="{7F96383B-09D4-1949-A621-887FE7AAD804}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{1652DBC4-B956-E74F-A89C-8F8EBA71F5B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D6D6BD0C-20F2-E949-AC72-5294571FE126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0730C1BF-481B-9143-A1F3-E417DF710BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jailbroken Minecraft" sheetId="2" r:id="rId1"/>
+    <sheet name="Official Minecraft" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Version</t>
   </si>
@@ -460,10 +461,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203AE0F3-405A-C84C-AC86-629FA5AD91C8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -524,6 +525,80 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{15B00F7A-E4C9-854A-A485-372C602CD879}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{0852F789-A559-5D47-BAA9-2B6A45037327}"/>
+    <hyperlink ref="C2" location="itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist" display="Install" xr:uid="{ECDAEDAC-7A94-C041-8DB5-8D196D3C42D3}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{7A6448E9-D93A-F543-93AF-99BB1E058971}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.24609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4862800</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B54AEC42-FD55-2D49-ABE0-A6177DA7B1B0}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{01DDBE85-A07E-1546-8E1E-C86E4EDC6A72}"/>
     <hyperlink ref="C2" location="itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist" display="Install" xr:uid="{7F96383B-09D4-1949-A621-887FE7AAD804}"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0730C1BF-481B-9143-A1F3-E417DF710BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{BA3FED47-E3AC-3D44-A78F-79F7DA631B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jailbroken Minecraft" sheetId="2" r:id="rId1"/>
-    <sheet name="Official Minecraft" sheetId="1" r:id="rId2"/>
+    <sheet name="Official Minecraft" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Version</t>
   </si>
@@ -461,80 +460,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203AE0F3-405A-C84C-AC86-629FA5AD91C8}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.24609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>4862800</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{15B00F7A-E4C9-854A-A485-372C602CD879}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{0852F789-A559-5D47-BAA9-2B6A45037327}"/>
-    <hyperlink ref="C2" location="itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist" display="Install" xr:uid="{ECDAEDAC-7A94-C041-8DB5-8D196D3C42D3}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{7A6448E9-D93A-F543-93AF-99BB1E058971}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
   <dimension ref="A1:G2"/>
   <sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{BA3FED47-E3AC-3D44-A78F-79F7DA631B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF722CB-823A-AE4C-86EB-8F71A671DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Official Minecraft" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Version</t>
   </si>
@@ -51,6 +51,12 @@
     <t>0.1.2</t>
   </si>
   <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1H0j6ZcIszFVzd4882qy-4A</t>
+  </si>
+  <si>
     <t>https://pan.baidu.com/s/1Q7fPma_LW6wTk0OvJRhynQ?pwd=1234</t>
   </si>
   <si>
@@ -63,10 +69,64 @@
     <t>iOS 4.3 or above, iOS 10.3.4 or below, *Do not support iOS 11 and above!</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Terabox</t>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>0.2.1</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.3.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.2.0.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.2.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.3.0.plist</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1T5XUJqgug0Fha7qag82Bgw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1C2T3zOQx_88qxdiOjj7qsA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1ME67jKtZHIcWg6f_qcbSbw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1LzeBCm1TO8OTu9QvMRkQ8w</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1vqmmEPQX_f1JZ6SQEIeV-Q?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1AgUJPMIMsbnZzTkyiJP8eA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/14D7R79TWrJCdH4ta0wQsgQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1dxMeIPhYqCpM7jQJHVG_1A?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.1.3.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.2.0.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.2.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.3.0.ipa</t>
   </si>
 </sst>
 </file>
@@ -461,16 +521,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="131.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.92578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.24609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="96.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.08984375" bestFit="1" customWidth="1"/>
@@ -490,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -506,28 +566,131 @@
       <c r="B2">
         <v>4862800</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5230655</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>6450816</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>6863043</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>7546087</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B54AEC42-FD55-2D49-ABE0-A6177DA7B1B0}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{01DDBE85-A07E-1546-8E1E-C86E4EDC6A72}"/>
-    <hyperlink ref="C2" location="itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.1.2.plist" display="Install" xr:uid="{7F96383B-09D4-1949-A621-887FE7AAD804}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{1652DBC4-B956-E74F-A89C-8F8EBA71F5B1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1652DBC4-B956-E74F-A89C-8F8EBA71F5B1}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{B54AEC42-FD55-2D49-ABE0-A6177DA7B1B0}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{01DDBE85-A07E-1546-8E1E-C86E4EDC6A72}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{58E34A66-B9F1-CA49-AD24-ADFEC8D45724}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{F7037225-74F8-D141-9371-84C78F75551C}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{3CE2D36F-2CA5-7540-A678-C34222EBF2CA}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{830B7852-6A93-0F43-A362-055AAEDA78E5}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{C4DB9616-97B5-8243-A062-36D6C64D48FE}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{F0A31409-6E9E-914E-88DF-490A8C1BDC7D}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{D0A45A56-1D86-3440-B2A1-99BC91C913BA}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{A94C17B5-56AA-2F4E-AC26-0FE0D0D74335}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{CE49730D-D16A-6246-98E4-A62B9F34D30C}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{0F81EFAC-F3DF-7144-B257-58215E65D410}"/>
+    <hyperlink ref="F5" r:id="rId14" xr:uid="{022A3954-08C8-9242-96E8-BF30EDB6229A}"/>
+    <hyperlink ref="F6" r:id="rId15" xr:uid="{8CA36838-574C-6940-B9B7-3F1CBE09635A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
